--- a/results/I3_N5_M3_T30_C150_DepCentral_s2_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.4862428780935</v>
+        <v>1776.609827157087</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.42908392284503</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.624052984133808</v>
+        <v>16.62778373515295</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.501211939377871</v>
+        <v>5.134510687494965</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>497.6600000000044</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.52</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.66483080554379</v>
+        <v>11.95858503259002</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>11.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>25.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.17869683315583</v>
       </c>
     </row>
     <row r="7">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.79934149303875</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.82130316684417</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1129,15 +1129,113 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1240,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>154.9200000000004</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1251,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>152.65</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1262,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>157.98</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1273,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>156.385</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1284,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7900000000004</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1295,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2650000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1306,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6150000000006</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1317,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6850000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1328,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8750000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1339,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9200000000006</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1350,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>193.9600000000004</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -1361,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>200.6800000000005</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -1372,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>178.3550000000004</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
@@ -1383,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>197.3550000000004</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
@@ -1394,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>196.7550000000005</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -1405,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.7900000000011</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -1416,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.9650000000011</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -1427,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4950000000011</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -1438,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>149.7050000000011</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -1449,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>151.4350000000011</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -1460,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000072</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1471,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1482,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1493,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1504,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000075</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1515,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.9200000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1526,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>152.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1537,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>157.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1548,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1559,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>159.7900000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1570,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>193.9600000000004</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
@@ -1581,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>200.6800000000005</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
@@ -1592,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.3550000000004</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -1603,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.3550000000004</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -1614,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>196.7550000000005</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
@@ -1716,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1727,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1738,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1749,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1760,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.790000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1771,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.96000000000041</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1782,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>50.68000000000046</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -1793,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>28.35500000000043</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -1804,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>47.35500000000044</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
@@ -1815,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>46.75500000000048</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1917,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1928,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1939,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1950,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1961,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1972,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1983,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1994,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2005,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2016,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2137,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2148,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2159,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2170,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2181,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2357,9 +2455,31 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
